--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/15/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.4332</v>
+        <v>16.43869999999999</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.283800000000003</v>
+        <v>6.194900000000003</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.768300000000003</v>
+        <v>5.911500000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.597500000000004</v>
+        <v>9.703700000000003</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.964600000000008</v>
+        <v>9.218100000000002</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.734899999999998</v>
+        <v>5.336300000000002</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.2657</v>
+        <v>17.2288</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.183500000000005</v>
+        <v>4.313500000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.92689999999998</v>
+        <v>16.78109999999998</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.107800000000003</v>
+        <v>5.047100000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.54490000000001</v>
+        <v>15.9783</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.21489999999999</v>
+        <v>16.22319999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.4657</v>
+        <v>17.4088</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.13100000000001</v>
+        <v>17.18470000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.0228</v>
+        <v>17.06930000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.330300000000001</v>
+        <v>5.200100000000003</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.59510000000001</v>
+        <v>16.632</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.4847</v>
+        <v>16.08050000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.070199999999994</v>
+        <v>4.849099999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.6471</v>
+        <v>16.7187</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.914999999999998</v>
+        <v>5.2326</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.435899999999997</v>
+        <v>5.2296</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.23990000000001</v>
+        <v>17.17150000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.955300000000006</v>
+        <v>9.457400000000007</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.316099999999997</v>
+        <v>5.173599999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.44130000000002</v>
+        <v>17.25190000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.76809999999999</v>
+        <v>16.83249999999999</v>
       </c>
     </row>
     <row r="91">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.249100000000002</v>
+        <v>5.194900000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.69050000000001</v>
+        <v>18.56730000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.617499999999998</v>
+        <v>5.763699999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
